--- a/examples/housing_feature_info.xlsx
+++ b/examples/housing_feature_info.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,118 +460,118 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.899297509564793</v>
+        <v>107.4223475180049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.213238221749675</v>
+        <v>3.076363740116787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.334359185043811</v>
+        <v>106.5776361235908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06730526811662152</v>
+        <v>3.028621704530957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.285540158128193</v>
+        <v>6.328664761195696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08320839033278363</v>
+        <v>0.292513543567451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.964649630583782</v>
+        <v>6.209775923689797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05473954078170837</v>
+        <v>0.2026793068457656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.626005499850409</v>
+        <v>0.264888067987313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02793792886559236</v>
+        <v>0.01973128946362872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1477790532773968</v>
+        <v>0.2353699907881639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01239291199424503</v>
+        <v>0.0130461662786688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1014691811798605</v>
+        <v>0.08759805358540787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01650556419325732</v>
+        <v>0.01140662390171593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06711604950148875</v>
+        <v>0.06847439309966785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01075905838672949</v>
+        <v>0.007634133872178744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04666402357998465</v>
+        <v>0.06577371982573417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004440701001174926</v>
+        <v>0.005746789790131239</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04391303466457177</v>
+        <v>0.04181252287459582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008064027344857465</v>
+        <v>0.006619171191719851</v>
       </c>
     </row>
     <row r="12">
@@ -594,49 +594,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02104763814056792</v>
+        <v>0.02002410914585391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007288918510875365</v>
+        <v>0.003946675096620928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01403338603899078</v>
+        <v>0.01276885476117473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005211949782414614</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>AR12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.001240172456894206</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.002400377607152871</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>AR24</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7.997002759738692e-05</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.319917872681193e-05</v>
+        <v>0.003880043315285262</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3705023817487981</v>
+        <v>0.3684200449544626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04339261101783148</v>
+        <v>0.03708844344104784</v>
       </c>
     </row>
     <row r="3">
@@ -695,166 +669,140 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3004581203278341</v>
+        <v>0.2773567749093705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02805179112444671</v>
+        <v>0.03614648580610592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0305353917188562</v>
+        <v>0.03859080912407884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004049952107694216</v>
+        <v>0.008088705363230177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02828889223896891</v>
+        <v>0.03718050666796931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006027944820338388</v>
+        <v>0.008016626099524565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02472005399322081</v>
+        <v>0.03383376323856586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007743561500525279</v>
+        <v>0.00737847270989468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02463042726105929</v>
+        <v>0.03284826822699238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004032835204710994</v>
+        <v>0.007796184493944361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0223689503933326</v>
+        <v>0.02723600022721557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005558652176618843</v>
+        <v>0.004942907047913039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02184635689565617</v>
+        <v>0.02195269003672335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003920661582830463</v>
+        <v>0.008018292166592006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01797713873493554</v>
+        <v>0.02099048350907309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004097904923802027</v>
+        <v>0.003776199118346134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01660659125471247</v>
+        <v>0.01472188496313112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002369630800469798</v>
+        <v>0.002808951566148241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01598093919438004</v>
+        <v>-0.00165813617471311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003414422340430619</v>
+        <v>0.0002714177939931442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01498062936159767</v>
+        <v>-0.002059719524324044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00311091333619844</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.001337947896423986</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.411355767979131e-05</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0011974387586005</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.654794325707144e-07</v>
+        <v>0.0003464644131742279</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,36 +848,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1469934332086645</v>
+        <v>0.1311304845821042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009230979064723017</v>
+        <v>0.01305182720942254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09656905664854373</v>
+        <v>0.09344755587217701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01199996605232504</v>
+        <v>0.005978514517601502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08733105799496491</v>
+        <v>0.08417261745292268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003752705088059481</v>
+        <v>0.00446625874984668</v>
       </c>
     </row>
     <row r="5">
@@ -939,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06519230978759116</v>
+        <v>0.07778471201506099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004725878619882878</v>
+        <v>0.005602021049403365</v>
       </c>
     </row>
     <row r="6">
@@ -952,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01160288533969898</v>
+        <v>0.01646509313860454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00112360778207412</v>
+        <v>0.001566446756825561</v>
       </c>
     </row>
     <row r="7">
@@ -965,10 +913,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008815724015807746</v>
+        <v>0.009936118008087625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001705100082648018</v>
+        <v>0.00136653106704129</v>
       </c>
     </row>
     <row r="8">
@@ -978,10 +926,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002040887751851561</v>
+        <v>0.001488443671135275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008615342061597793</v>
+        <v>0.001531268650861983</v>
       </c>
     </row>
     <row r="9">
@@ -991,49 +939,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001042992121054875</v>
+        <v>0.0009141831232616582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006604605063986619</v>
+        <v>0.0003334480415420233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002212631655994501</v>
+        <v>0.0001160764390839564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002759489320048273</v>
+        <v>0.0003013631466813013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001116145336768293</v>
+        <v>7.803222655244912e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002618200237575635</v>
+        <v>0.0001923505935345732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.189876017737568e-05</v>
+        <v>1.536684492757789e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003791200573912224</v>
+        <v>4.498776897343123e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1043,36 +991,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.995761822868204e-05</v>
+        <v>-0.0001677229823062509</v>
       </c>
       <c r="C13" t="n">
-        <v>4.559748670268829e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-3.703158576580101e-05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0002495695307078678</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t^3</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.0003055916795462243</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0008872136224348186</v>
+        <v>0.0001889520256759181</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6835277579972171</v>
+        <v>0.6131425659474903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06047237608554358</v>
+        <v>0.02079896062307423</v>
       </c>
     </row>
     <row r="3">
@@ -1131,10 +1053,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3466083318456948</v>
+        <v>0.3187696716630773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02129484611490322</v>
+        <v>0.02675499423510843</v>
       </c>
     </row>
     <row r="4">
@@ -1144,10 +1066,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1786850710158281</v>
+        <v>0.1871629179369581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009623352852536101</v>
+        <v>0.006699081711932178</v>
       </c>
     </row>
     <row r="5">
@@ -1157,75 +1079,75 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1187621622826128</v>
+        <v>0.1335973484959896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00386537815508689</v>
+        <v>0.006342743754107278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09100110138813382</v>
+        <v>0.0976171848791642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005860498816833753</v>
+        <v>0.003107378482296645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09031347261474439</v>
+        <v>0.09372533682185706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0035941555462471</v>
+        <v>0.008881095460299665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08516794455759372</v>
+        <v>0.08664902885954037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007346248249505582</v>
+        <v>0.00455020996445676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07656676619833643</v>
+        <v>0.07187883183270813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004185854506931143</v>
+        <v>0.002584590919928442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0599150239454356</v>
+        <v>0.06805279852595196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002356008968856252</v>
+        <v>0.002779425381330813</v>
       </c>
     </row>
     <row r="11">
@@ -1235,62 +1157,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02921421857282924</v>
+        <v>0.03189242554134945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001228059402392411</v>
+        <v>0.001857487620523426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001674510196856715</v>
+        <v>0.0002951570642518275</v>
       </c>
       <c r="C12" t="n">
-        <v>1.718302123895078e-05</v>
+        <v>2.440667536856286e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.094164910457884e-05</v>
+        <v>8.541233906509405e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.820068748100757e-06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t^3</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t^2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+        <v>1.090709417548923e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,10 +1232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4010876356483128</v>
+        <v>0.2483471480024431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0168017728428184</v>
+        <v>0.01349721739903097</v>
       </c>
     </row>
     <row r="3">
@@ -1349,49 +1245,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2390340419405534</v>
+        <v>0.1451386672473848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01293087780689128</v>
+        <v>0.01439542114160123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1156570724747731</v>
+        <v>0.1379993192807762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007346119391677024</v>
+        <v>0.007260472795794665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1126217646388501</v>
+        <v>0.07406628255663036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007087236943687256</v>
+        <v>0.007108939612577529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05770423724136784</v>
+        <v>0.05188472555822891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003341407648458888</v>
+        <v>0.006305940278725236</v>
       </c>
     </row>
     <row r="7">
@@ -1401,114 +1297,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05423997158288911</v>
+        <v>0.04355203912300763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001924507334521793</v>
+        <v>0.003458431622134688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0528776547216526</v>
+        <v>0.04065299056769367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00303063086671618</v>
+        <v>0.004553531075246851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04853898896583168</v>
+        <v>0.01963884458245511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004367378467280267</v>
+        <v>0.002602872512737596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01626300963001477</v>
+        <v>0.009857884013344243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001183062811670344</v>
+        <v>0.0008961600306521596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01493611933525285</v>
+        <v>0.004986781208674395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009968558955947291</v>
+        <v>0.0006846281429536766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006859755985416105</v>
+        <v>0.0007201575241107871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001829045510548028</v>
+        <v>7.951890995697963e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006267314477028685</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001274875172013933</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.001061064697138336</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000156604195098538</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.001031027171578347</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0002438417072798523</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,7 +1420,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1563,7 +1433,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1576,7 +1446,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1589,7 +1459,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1602,7 +1472,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1615,7 +1485,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1628,7 +1498,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1641,7 +1511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1654,7 +1524,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1667,7 +1537,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1680,7 +1550,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1693,39 +1563,13 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>AR2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>AR1</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1740,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,183 +1612,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2483361620044115</v>
+        <v>0.07873351731465647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01381752533649977</v>
+        <v>0.007627471294205187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1421985788054795</v>
+        <v>0.04569582321457168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01023208912694165</v>
+        <v>0.006003914075031615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1000116551177889</v>
+        <v>0.02035690667678125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006212334132411038</v>
+        <v>0.001637536957691375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07700441817496062</v>
+        <v>0.01358129279120928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008567872805626977</v>
+        <v>0.002187648893141694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07077852605629147</v>
+        <v>0.01132857512749457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00757831511968364</v>
+        <v>0.001952274560771018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03824667954814218</v>
+        <v>0.005684899055244497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009384218431205626</v>
+        <v>0.0009279311682794413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01900374535954406</v>
+        <v>0.005521646253413182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002433561472991551</v>
+        <v>0.002107524260681115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01036300178290368</v>
+        <v>0.003529585511656897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003928473536099681</v>
+        <v>0.001341096988387268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00902466934710695</v>
+        <v>0.001453754672574625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002791081133085849</v>
+        <v>0.0004506241444210918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007120584342195868</v>
+        <v>0.0006988553654500018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009252481815601546</v>
+        <v>0.0002718002020943887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00658631168768824</v>
+        <v>0.0001236395062288897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001565339537886533</v>
+        <v>2.289698953624841e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003023331197083179</v>
+        <v>4.931256352880275e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008976817993650431</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.001679549428064964</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000834290309620687</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.001218777800889481</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.001089673480275897</v>
+        <v>7.18630527450848e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2005,13 +1823,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.539621486146637</v>
+        <v>2.658314576764008</v>
       </c>
       <c r="C2" t="n">
-        <v>1.404058954719317</v>
+        <v>1.554693866505429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2020,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.5079755322314454, 5.328621768515972]</t>
+          <t>[-0.2847991942055765, 5.900175844265958]</t>
         </is>
       </c>
     </row>
@@ -2031,13 +1849,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004149614252695102</v>
+        <v>-0.007240381500428341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.321802270005328</v>
+        <v>0.3991412577734458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2046,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.6846165688527854, 0.5568675222722642]</t>
+          <t>[-0.7630286041422991, 0.7359776282633608]</t>
         </is>
       </c>
     </row>
@@ -2057,13 +1875,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2008009093366644</v>
+        <v>0.2267647677942874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5013503649948005</v>
+        <v>0.5596266665149362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.668</v>
+        <v>0.718</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2072,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.7313449203868765, 1.2572877954346966]</t>
+          <t>[-0.7816165255409611, 1.3783840293894345]</t>
         </is>
       </c>
     </row>
@@ -2083,13 +1901,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4045098289982079</v>
+        <v>-0.5283073674559332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4736172447535462</v>
+        <v>0.593751437725243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.404</v>
+        <v>0.342</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2098,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.2692944124205652, 0.4884288805039985]</t>
+          <t>[-1.6070266538358684, 0.8485440033607987]</t>
         </is>
       </c>
     </row>
@@ -2109,13 +1927,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1006529904395763</v>
+        <v>-0.14241270568974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3313259438442028</v>
+        <v>0.4135557517577063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.734</v>
+        <v>0.708</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2124,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.6954478228131631, 0.5284008393414744]</t>
+          <t>[-0.9637866920220772, 0.6671930409101731]</t>
         </is>
       </c>
     </row>
@@ -2135,13 +1953,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08686824077875989</v>
+        <v>-0.1188563464124035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3528137238010786</v>
+        <v>0.4351704387228137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.792</v>
+        <v>0.778</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2150,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.76478775482352, 0.6316045506540621]</t>
+          <t>[-1.0085806442642244, 0.7458857847865403]</t>
         </is>
       </c>
     </row>
@@ -2291,13 +2109,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5538829487158191</v>
+        <v>0.6830732067348578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4525659406233712</v>
+        <v>0.6101391024968481</v>
       </c>
       <c r="D13" t="n">
-        <v>0.138</v>
+        <v>0.146</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2306,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.023765659879672503, 1.523399564034665]</t>
+          <t>[-0.0271523260462571, 2.249361904766252]</t>
         </is>
       </c>
     </row>
@@ -2317,13 +2135,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006708055803424693</v>
+        <v>-0.008781169575366454</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1957271058380531</v>
+        <v>0.2438968713606035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.93</v>
+        <v>0.914</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2332,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.3814573367799145, 0.39380534288973273]</t>
+          <t>[-0.46548551793028553, 0.4945425169043985]</t>
         </is>
       </c>
     </row>
@@ -2343,13 +2161,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6673098213472723</v>
+        <v>0.8456506284958198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6063586051679469</v>
+        <v>0.8169364032403307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2358,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 1.926043622141906]</t>
+          <t>[0.0, 2.4842806785355345]</t>
         </is>
       </c>
     </row>
@@ -2369,13 +2187,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2399968961878156</v>
+        <v>0.2787850582572991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1675585517002612</v>
+        <v>0.1975624162705441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2384,7 +2202,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.5907902864232613]</t>
+          <t>[0.0, 0.7057977558368931]</t>
         </is>
       </c>
     </row>
@@ -2395,13 +2213,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3450086802230267</v>
+        <v>0.4452895849887973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3111152348331135</v>
+        <v>0.4111264739803804</v>
       </c>
       <c r="D17" t="n">
-        <v>0.158</v>
+        <v>0.174</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2410,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.0308786888582209]</t>
+          <t>[0.0, 1.3368801535266293]</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2369,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.100487555128533</v>
+        <v>3.421277989290175</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8220056351097115</v>
+        <v>0.9158646466634597</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2566,7 +2384,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.448844123451842, 4.698976800896974]</t>
+          <t>[1.7527715831186566, 5.3174172613877415]</t>
         </is>
       </c>
     </row>
@@ -2577,22 +2395,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.440748416054554</v>
+        <v>-1.772659423414703</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5644009265857137</v>
+        <v>0.6497343413632226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-2.696865665114322, -0.49510927357154455]</t>
+          <t>[-3.096501936395857, -0.5942604369724782]</t>
         </is>
       </c>
     </row>
@@ -2603,10 +2421,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.698397230922408</v>
+        <v>-3.295182735533101</v>
       </c>
       <c r="C25" t="n">
-        <v>1.152545821754317</v>
+        <v>1.37488802176788</v>
       </c>
       <c r="D25" t="n">
         <v>0.016</v>
@@ -2618,7 +2436,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-5.1202462694546345, -0.6100971112661663]</t>
+          <t>[-6.179906143432127, -0.7803374992317276]</t>
         </is>
       </c>
     </row>
@@ -2759,13 +2577,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4570344942075104</v>
+        <v>0.5275270062089579</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5776577723236671</v>
+        <v>0.6081495726200088</v>
       </c>
       <c r="D31" t="n">
-        <v>0.426</v>
+        <v>0.356</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2774,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.546924755476013, 1.6417620379100828]</t>
+          <t>[-0.6616771393456302, 1.7927786747573902]</t>
         </is>
       </c>
     </row>
@@ -2785,13 +2603,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.488900883360472</v>
+        <v>-1.80097734708575</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6168973153882898</v>
+        <v>0.7651280936137935</v>
       </c>
       <c r="D32" t="n">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2800,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2.712420228409521, -0.20174108955880882]</t>
+          <t>[-3.3242709179779997, -0.35164303178947576]</t>
         </is>
       </c>
     </row>
@@ -2811,13 +2629,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01834790451202963</v>
+        <v>0.08893254787116675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8333059930883279</v>
+        <v>1.076674151158811</v>
       </c>
       <c r="D33" t="n">
-        <v>0.974</v>
+        <v>0.954</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2826,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.610660783641079, 1.61961712020627]</t>
+          <t>[-1.899937831640389, 2.290848804115183]</t>
         </is>
       </c>
     </row>
@@ -2941,10 +2759,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.256550340002291</v>
+        <v>-3.414219186529416</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9175385281926705</v>
+        <v>0.97979482411914</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2956,7 +2774,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-4.948157207785343, -1.4963678523175643]</t>
+          <t>[-5.558396255808256, -1.54665879871482]</t>
         </is>
       </c>
     </row>
@@ -2967,10 +2785,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-6.106041923710996</v>
+        <v>-6.584860679797362</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9469183651875134</v>
+        <v>1.063187887979601</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2982,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.030617265950527, -4.200571991150936]</t>
+          <t>[-8.580907850521578, -4.324479261485952]</t>
         </is>
       </c>
     </row>
@@ -2993,10 +2811,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.272548289293672</v>
+        <v>4.765210741936539</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9667038789151274</v>
+        <v>1.072119332416393</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3008,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.4101248291120116, 6.130914265506683]</t>
+          <t>[2.7805996328602083, 6.82884077331055]</t>
         </is>
       </c>
     </row>
@@ -3019,10 +2837,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.683314787417652</v>
+        <v>-7.25544963853951</v>
       </c>
       <c r="C41" t="n">
-        <v>1.123306448604567</v>
+        <v>1.223127561138386</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3034,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-8.958205772981865, -4.645578603445303]</t>
+          <t>[-9.712221957735085, -5.008920596470938]</t>
         </is>
       </c>
     </row>
@@ -3045,13 +2863,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.535076602317123</v>
+        <v>1.799470238997989</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9913491203307979</v>
+        <v>1.117756116523329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122</v>
+        <v>0.11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3060,7 +2878,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.2635637847956847, 3.6422508772116293]</t>
+          <t>[-0.480158984713413, 3.746980186953587]</t>
         </is>
       </c>
     </row>
@@ -3331,13 +3149,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.012915086052034</v>
+        <v>0.01379328956027253</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02926341642249573</v>
+        <v>0.03151763732597004</v>
       </c>
       <c r="D53" t="n">
-        <v>0.65</v>
+        <v>0.648</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3346,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.04301684443352267, 0.06477337860245543]</t>
+          <t>[-0.048835946085973664, 0.07639294650769363]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_feature_info.xlsx
+++ b/examples/housing_feature_info.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.4223475180049</v>
+        <v>61.11741193047775</v>
       </c>
       <c r="C2" t="n">
-        <v>3.076363740116787</v>
+        <v>0.1987984820250974</v>
       </c>
     </row>
     <row r="3">
@@ -477,36 +477,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.5776361235908</v>
+        <v>60.6436158200017</v>
       </c>
       <c r="C3" t="n">
-        <v>3.028621704530957</v>
+        <v>0.3022506855619175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.328664761195696</v>
+        <v>5.573365825953755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.292513543567451</v>
+        <v>0.1701195172733226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.209775923689797</v>
+        <v>5.524528339515845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2026793068457656</v>
+        <v>0.1644838433466006</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.264888067987313</v>
+        <v>0.2737287043943841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01973128946362872</v>
+        <v>0.01494187129851083</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2353699907881639</v>
+        <v>0.2313011553700373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0130461662786688</v>
+        <v>0.002364617680807514</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08759805358540787</v>
+        <v>0.08959614440094546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01140662390171593</v>
+        <v>0.00968367144249304</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06847439309966785</v>
+        <v>0.08171197667906978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007634133872178744</v>
+        <v>0.005620693728553901</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06577371982573417</v>
+        <v>0.0643172076211744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005746789790131239</v>
+        <v>0.004230475255979039</v>
       </c>
     </row>
     <row r="11">
@@ -581,36 +581,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04181252287459582</v>
+        <v>0.04897864684454516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006619171191719851</v>
+        <v>0.007288359648294588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02002410914585391</v>
+        <v>0.01978143273462354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003946675096620928</v>
+        <v>0.004883677424078141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01276885476117473</v>
+        <v>0.01272186622276619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003880043315285262</v>
+        <v>0.003923979993682674</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3684200449544626</v>
+        <v>0.3332500729766564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03708844344104784</v>
+        <v>0.03447512153901033</v>
       </c>
     </row>
     <row r="3">
@@ -669,101 +669,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2773567749093705</v>
+        <v>0.2542122695679329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03614648580610592</v>
+        <v>0.01389169692617463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03859080912407884</v>
+        <v>0.04449587020621602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008088705363230177</v>
+        <v>0.004543393045458336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03718050666796931</v>
+        <v>0.04264140588960585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008016626099524565</v>
+        <v>0.006646341225253534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03383376323856586</v>
+        <v>0.03365786994509577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00737847270989468</v>
+        <v>0.008890031389946313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03284826822699238</v>
+        <v>0.03324744385541969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007796184493944361</v>
+        <v>0.004113120089178779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02723600022721557</v>
+        <v>0.03092821348233301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004942907047913039</v>
+        <v>0.003148337364998589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02195269003672335</v>
+        <v>0.02014220718643121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008018292166592006</v>
+        <v>0.003490718287002068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02099048350907309</v>
+        <v>0.0180897855061442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003776199118346134</v>
+        <v>0.006419505308194134</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01472188496313112</v>
+        <v>0.01800424046910296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002808951566148241</v>
+        <v>0.007296342878922374</v>
       </c>
     </row>
     <row r="12">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00165813617471311</v>
+        <v>-0.001708709491493243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002714177939931442</v>
+        <v>0.0005740057675226446</v>
       </c>
     </row>
     <row r="13">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002059719524324044</v>
+        <v>-0.001755115697824183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003464644131742279</v>
+        <v>0.0001235026813534909</v>
       </c>
     </row>
   </sheetData>
@@ -848,36 +848,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1311304845821042</v>
+        <v>0.1244885706092682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01305182720942254</v>
+        <v>0.01252329783821101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09344755587217701</v>
+        <v>0.09438014352254318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005978514517601502</v>
+        <v>0.008316793859069591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08417261745292268</v>
+        <v>0.0927878645051661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00446625874984668</v>
+        <v>0.007322152967916529</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07778471201506099</v>
+        <v>0.07444818326122889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005602021049403365</v>
+        <v>0.004762971806473896</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01646509313860454</v>
+        <v>0.01506552180764478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001566446756825561</v>
+        <v>0.001263982143517038</v>
       </c>
     </row>
     <row r="7">
@@ -913,62 +913,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009936118008087625</v>
+        <v>0.008802889183064289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00136653106704129</v>
+        <v>0.002653645570673722</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001488443671135275</v>
+        <v>0.0005693480298940345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001531268650861983</v>
+        <v>0.0002851142062207174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009141831232616582</v>
+        <v>0.0001689703012126564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003334480415420233</v>
+        <v>6.911048232076023e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001160764390839564</v>
+        <v>0.000159716921677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003013631466813013</v>
+        <v>0.0001745465337362218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.803222655244912e-05</v>
+        <v>0.000156979265031576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001923505935345732</v>
+        <v>0.001137716364658501</v>
       </c>
     </row>
     <row r="12">
@@ -978,23 +978,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.536684492757789e-05</v>
+        <v>-1.326747457610633e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.498776897343123e-05</v>
+        <v>2.006292499524311e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001677229823062509</v>
+        <v>-2.577838176700542e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001889520256759181</v>
+        <v>0.0001013176901143116</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6131425659474903</v>
+        <v>0.2544412158678523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02079896062307423</v>
+        <v>0.02209109773034156</v>
       </c>
     </row>
     <row r="3">
@@ -1053,140 +1053,140 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3187696716630773</v>
+        <v>0.215054008590169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02675499423510843</v>
+        <v>0.01477129068164966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1871629179369581</v>
+        <v>0.1481441848843759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006699081711932178</v>
+        <v>0.007406345181852452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1335973484959896</v>
+        <v>0.1093781429181077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006342743754107278</v>
+        <v>0.004346172743704631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0976171848791642</v>
+        <v>0.07624111417355546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003107378482296645</v>
+        <v>0.006194772215428191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09372533682185706</v>
+        <v>0.06984670713107292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008881095460299665</v>
+        <v>0.002691576048377172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08664902885954037</v>
+        <v>0.05922474414531076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00455020996445676</v>
+        <v>0.001634209194267076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07187883183270813</v>
+        <v>0.05485595435793152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002584590919928442</v>
+        <v>0.005225019627532724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06805279852595196</v>
+        <v>0.0233631794766951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002779425381330813</v>
+        <v>0.002113330075918199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03189242554134945</v>
+        <v>0.01668197759432109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001857487620523426</v>
+        <v>0.002133848006519901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002951570642518275</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.440667536856286e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.541233906509405e-05</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.090709417548923e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1228,27 +1228,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2483471480024431</v>
+        <v>0.1908457843386265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01349721739903097</v>
+        <v>0.01158245733470568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1451386672473848</v>
+        <v>0.1562745636085344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01439542114160123</v>
+        <v>0.008670625720982443</v>
       </c>
     </row>
     <row r="4">
@@ -1258,127 +1258,127 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1379993192807762</v>
+        <v>0.1258715693698084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007260472795794665</v>
+        <v>0.01020878768122255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07406628255663036</v>
+        <v>0.0961452920807695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007108939612577529</v>
+        <v>0.008950723080791659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05188472555822891</v>
+        <v>0.08744546627857767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006305940278725236</v>
+        <v>0.008624275813867951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04355203912300763</v>
+        <v>0.06710761323596337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003458431622134688</v>
+        <v>0.004308104723592271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04065299056769367</v>
+        <v>0.05160695314529453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004553531075246851</v>
+        <v>0.003221866586226664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01963884458245511</v>
+        <v>0.04505428630189361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002602872512737596</v>
+        <v>0.002780824735135864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009857884013344243</v>
+        <v>0.02903353352612119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008961600306521596</v>
+        <v>0.002485549750847</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004986781208674395</v>
+        <v>0.01509426309538899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006846281429536766</v>
+        <v>0.001611171214077067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0007201575241107871</v>
+        <v>0.001477471837221644</v>
       </c>
       <c r="C12" t="n">
-        <v>7.951890995697963e-05</v>
+        <v>0.0003314808843313063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0004088846339070029</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.0001587743952802304</v>
       </c>
     </row>
   </sheetData>
@@ -1420,85 +1420,85 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3842202723993018</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.02919266364627715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1951033426697097</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01023462800324552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.01411749152912884</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.004339117523122863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.007708259451191047</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.001709855215395546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.001280448448160731</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.001579082060940209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0004469322107193419</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.000172079009588658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1511,7 +1511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1524,7 +1524,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1537,7 +1537,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1550,27 +1550,27 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-3.7309612282721e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0001542005704703203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.0002107217819268925</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.000435100853255671</v>
       </c>
     </row>
   </sheetData>
@@ -1612,157 +1612,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07873351731465647</v>
+        <v>0.1752629121777541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007627471294205187</v>
+        <v>0.01248840100305757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04569582321457168</v>
+        <v>0.1603776539788752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006003914075031615</v>
+        <v>0.02448548172859672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02035690667678125</v>
+        <v>0.08883481539146851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001637536957691375</v>
+        <v>0.01296880781402912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01358129279120928</v>
+        <v>0.0505901784050156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002187648893141694</v>
+        <v>0.005844044040288709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01132857512749457</v>
+        <v>0.04909988898919045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001952274560771018</v>
+        <v>0.007615005488712878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005684899055244497</v>
+        <v>0.03535615771576439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009279311682794413</v>
+        <v>0.003012088513186999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005521646253413182</v>
+        <v>0.0285622387962609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002107524260681115</v>
+        <v>0.004594957035448165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003529585511656897</v>
+        <v>0.01721559800141872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001341096988387268</v>
+        <v>0.006599354780118909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001453754672574625</v>
+        <v>0.009177724584746704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004506241444210918</v>
+        <v>0.003971507118223794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0006988553654500018</v>
+        <v>0.006771149238747642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002718002020943887</v>
+        <v>0.002302898999211094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001236395062288897</v>
+        <v>0.006446837857466803</v>
       </c>
       <c r="C12" t="n">
-        <v>2.289698953624841e-05</v>
+        <v>0.001484926343214043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.931256352880275e-06</v>
+        <v>0.003425176003374464</v>
       </c>
       <c r="C13" t="n">
-        <v>7.18630527450848e-06</v>
+        <v>0.002761077484091348</v>
       </c>
     </row>
   </sheetData>
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.658314576764008</v>
+        <v>2.656634632774538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.554693866505429</v>
+        <v>1.539899092146841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.092</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.2847991942055765, 5.900175844265958]</t>
+          <t>[-0.23084053297896473, 5.89719823752459]</t>
         </is>
       </c>
     </row>
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.007240381500428341</v>
+        <v>-0.007304736864045405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3991412577734458</v>
+        <v>0.3953378078242328</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.976</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.7630286041422991, 0.7359776282633608]</t>
+          <t>[-0.7913561515306549, 0.7926462998368247]</t>
         </is>
       </c>
     </row>
@@ -1875,13 +1875,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2267647677942874</v>
+        <v>0.226705731640346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5596266665149362</v>
+        <v>0.581447111162109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.7816165255409611, 1.3783840293894345]</t>
+          <t>[-0.8264419496465467, 1.3270143976969369]</t>
         </is>
       </c>
     </row>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5283073674559332</v>
+        <v>-0.5283428645945856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.593751437725243</v>
+        <v>0.6044814512653451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342</v>
+        <v>0.374</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.6070266538358684, 0.8485440033607987]</t>
+          <t>[-1.6308072139424492, 0.7718469560740033]</t>
         </is>
       </c>
     </row>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.14241270568974</v>
+        <v>-0.1424874637821497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4135557517577063</v>
+        <v>0.4092922669775269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.708</v>
+        <v>0.756</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.9637866920220772, 0.6671930409101731]</t>
+          <t>[-0.9832270971731996, 0.6292393745894617]</t>
         </is>
       </c>
     </row>
@@ -1953,13 +1953,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1188563464124035</v>
+        <v>-0.1189624414578215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4351704387228137</v>
+        <v>0.435135009719471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.778</v>
+        <v>0.804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1.0085806442642244, 0.7458857847865403]</t>
+          <t>[-0.9420904095016003, 0.6990096249435298]</t>
         </is>
       </c>
     </row>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6830732067348578</v>
+        <v>0.6828301089395005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6101391024968481</v>
+        <v>0.5590356865875107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.146</v>
+        <v>0.13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.0271523260462571, 2.249361904766252]</t>
+          <t>[-0.004833988307725365, 1.8967190701671552]</t>
         </is>
       </c>
     </row>
@@ -2135,13 +2135,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008781169575366454</v>
+        <v>-0.008891045867793001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2438968713606035</v>
+        <v>0.2226734198923408</v>
       </c>
       <c r="D14" t="n">
-        <v>0.914</v>
+        <v>0.978</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.46548551793028553, 0.4945425169043985]</t>
+          <t>[-0.44917072284458104, 0.4520706192976046]</t>
         </is>
       </c>
     </row>
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8456506284958198</v>
+        <v>0.845588617962582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8169364032403307</v>
+        <v>0.7808935583800216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.13</v>
+        <v>0.422</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 2.4842806785355345]</t>
+          <t>[0.0, 2.4176533489197687]</t>
         </is>
       </c>
     </row>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2787850582572991</v>
+        <v>0.2789076254158366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1975624162705441</v>
+        <v>0.201683158726266</v>
       </c>
       <c r="D16" t="n">
-        <v>0.096</v>
+        <v>0.102</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.7057977558368931]</t>
+          <t>[0.0, 0.6968116638543624]</t>
         </is>
       </c>
     </row>
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4452895849887973</v>
+        <v>0.445237698024121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4111264739803804</v>
+        <v>0.4322489203900294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174</v>
+        <v>0.164</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.3368801535266293]</t>
+          <t>[0.0, 1.3749637570050317]</t>
         </is>
       </c>
     </row>
@@ -2369,22 +2369,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.421277989290175</v>
+        <v>3.421256075787255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9158646466634597</v>
+        <v>0.927527560143264</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.7527715831186566, 5.3174172613877415]</t>
+          <t>[1.6020524701603458, 5.200887639610478]</t>
         </is>
       </c>
     </row>
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.772659423414703</v>
+        <v>-1.772784455500506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6497343413632226</v>
+        <v>0.6280887596498368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-3.096501936395857, -0.5942604369724782]</t>
+          <t>[-2.953602594022514, -0.5157712093030736]</t>
         </is>
       </c>
     </row>
@@ -2421,13 +2421,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.295182735533101</v>
+        <v>-3.295331709883806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.37488802176788</v>
+        <v>1.310404001107684</v>
       </c>
       <c r="D25" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-6.179906143432127, -0.7803374992317276]</t>
+          <t>[-6.160425533219842, -1.0151641590737772]</t>
         </is>
       </c>
     </row>
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5275270062089579</v>
+        <v>0.5403382810598699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6081495726200088</v>
+        <v>0.6379917821364091</v>
       </c>
       <c r="D31" t="n">
-        <v>0.356</v>
+        <v>0.384</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.6616771393456302, 1.7927786747573902]</t>
+          <t>[-0.6659276603818717, 1.8507958182681048]</t>
         </is>
       </c>
     </row>
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.80097734708575</v>
+        <v>-1.800793048713077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7651280936137935</v>
+        <v>0.7477802800153098</v>
       </c>
       <c r="D32" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-3.3242709179779997, -0.35164303178947576]</t>
+          <t>[-3.218687417595212, -0.4516090239246607]</t>
         </is>
       </c>
     </row>
@@ -2629,13 +2629,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08893254787116675</v>
+        <v>0.0893640055978627</v>
       </c>
       <c r="C33" t="n">
-        <v>1.076674151158811</v>
+        <v>0.9399968411226762</v>
       </c>
       <c r="D33" t="n">
-        <v>0.954</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.899937831640389, 2.290848804115183]</t>
+          <t>[-1.5979641336714057, 1.9815850153626209]</t>
         </is>
       </c>
     </row>
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.414219186529416</v>
+        <v>-3.414820926958793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.97979482411914</v>
+        <v>0.9491162248106269</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-5.558396255808256, -1.54665879871482]</t>
+          <t>[-5.400194142723629, -1.8019867856559886]</t>
         </is>
       </c>
     </row>
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-6.584860679797362</v>
+        <v>-6.584941914784161</v>
       </c>
       <c r="C39" t="n">
-        <v>1.063187887979601</v>
+        <v>1.078200840778043</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.580907850521578, -4.324479261485952]</t>
+          <t>[-8.731129442232977, -4.600700268976286]</t>
         </is>
       </c>
     </row>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.765210741936539</v>
+        <v>4.765031170484354</v>
       </c>
       <c r="C40" t="n">
-        <v>1.072119332416393</v>
+        <v>1.076391806302965</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.7805996328602083, 6.82884077331055]</t>
+          <t>[2.628626127289645, 6.835857509622288]</t>
         </is>
       </c>
     </row>
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-7.25544963853951</v>
+        <v>-7.252521818378498</v>
       </c>
       <c r="C41" t="n">
-        <v>1.223127561138386</v>
+        <v>1.224962540143893</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-9.712221957735085, -5.008920596470938]</t>
+          <t>[-9.652873286601618, -4.884408268606027]</t>
         </is>
       </c>
     </row>
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.799470238997989</v>
+        <v>1.798474207776606</v>
       </c>
       <c r="C42" t="n">
-        <v>1.117756116523329</v>
+        <v>1.159354431077974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11</v>
+        <v>0.118</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.480158984713413, 3.746980186953587]</t>
+          <t>[-0.44641751821693376, 4.085731816969404]</t>
         </is>
       </c>
     </row>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01379328956027253</v>
+        <v>0.013866367414485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03151763732597004</v>
+        <v>0.03058864160506765</v>
       </c>
       <c r="D53" t="n">
-        <v>0.648</v>
+        <v>0.636</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.048835946085973664, 0.07639294650769363]</t>
+          <t>[-0.04842655261498183, 0.06952043309467243]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_feature_info.xlsx
+++ b/examples/housing_feature_info.xlsx
@@ -460,53 +460,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.11741193047775</v>
+        <v>60.11230214940447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1987984820250974</v>
+        <v>2.023830093218155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.6436158200017</v>
+        <v>59.62908299426952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3022506855619175</v>
+        <v>3.484742273479073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.573365825953755</v>
+        <v>5.625860612349316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1701195172733226</v>
+        <v>0.1323113317666835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.524528339515845</v>
+        <v>5.562324301548513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1644838433466006</v>
+        <v>0.1765932006141095</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2737287043943841</v>
+        <v>0.2714995781667396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01494187129851083</v>
+        <v>0.01097599678383404</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2313011553700373</v>
+        <v>0.2090480457446216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002364617680807514</v>
+        <v>0.017948612716455</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08959614440094546</v>
+        <v>0.1002821692305014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00968367144249304</v>
+        <v>0.007132008740139337</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08171197667906978</v>
+        <v>0.08484670272807282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005620693728553901</v>
+        <v>0.01108882607693371</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0643172076211744</v>
+        <v>0.06945476524410424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004230475255979039</v>
+        <v>0.009635308527958132</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04897864684454516</v>
+        <v>0.04541824708067328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007288359648294588</v>
+        <v>0.00524368230861565</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01978143273462354</v>
+        <v>0.01723218723807216</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004883677424078141</v>
+        <v>0.002912182144935726</v>
       </c>
     </row>
     <row r="13">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01272186622276619</v>
+        <v>0.01241416474062849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003923979993682674</v>
+        <v>0.004053570497048657</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3332500729766564</v>
+        <v>0.3074638404729932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03447512153901033</v>
+        <v>0.04568239076896046</v>
       </c>
     </row>
     <row r="3">
@@ -669,49 +669,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2542122695679329</v>
+        <v>0.278035724070591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01389169692617463</v>
+        <v>0.01237345072741385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04449587020621602</v>
+        <v>0.04690288689935771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004543393045458336</v>
+        <v>0.007987353253409397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04264140588960585</v>
+        <v>0.04084130645696837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006646341225253534</v>
+        <v>0.004521833674533571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03365786994509577</v>
+        <v>0.03548662638473805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008890031389946313</v>
+        <v>0.004370268328339089</v>
       </c>
     </row>
     <row r="7">
@@ -721,23 +721,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03324744385541969</v>
+        <v>0.03227018598915008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004113120089178779</v>
+        <v>0.002991292794571719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03092821348233301</v>
+        <v>0.03116355231841044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003148337364998589</v>
+        <v>0.01364947295773823</v>
       </c>
     </row>
     <row r="9">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02014220718643121</v>
+        <v>0.0198328493990868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003490718287002068</v>
+        <v>0.006559945245655129</v>
       </c>
     </row>
     <row r="10">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0180897855061442</v>
+        <v>0.01964062670594389</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006419505308194134</v>
+        <v>0.003693792966497226</v>
       </c>
     </row>
     <row r="11">
@@ -773,36 +773,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01800424046910296</v>
+        <v>0.01501497451577833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007296342878922374</v>
+        <v>0.005039341875625523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001708709491493243</v>
+        <v>-0.001535531358393638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005740057675226446</v>
+        <v>0.0003782897833157563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001755115697824183</v>
+        <v>-0.001756797640159835</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001235026813534909</v>
+        <v>0.0001411751153414187</v>
       </c>
     </row>
   </sheetData>
@@ -848,36 +848,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1244885706092682</v>
+        <v>0.1338127658705275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01252329783821101</v>
+        <v>0.01188053774375829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09438014352254318</v>
+        <v>0.09894827523586422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008316793859069591</v>
+        <v>0.00330449220922369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0927878645051661</v>
+        <v>0.0928393590627415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007322152967916529</v>
+        <v>0.006503847954282768</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07444818326122889</v>
+        <v>0.07725063088309991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004762971806473896</v>
+        <v>0.007717423728784238</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01506552180764478</v>
+        <v>0.01521766614580558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001263982143517038</v>
+        <v>0.003481684274535578</v>
       </c>
     </row>
     <row r="7">
@@ -913,62 +913,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008802889183064289</v>
+        <v>0.01109220626301224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002653645570673722</v>
+        <v>0.001925774921896383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005693480298940345</v>
+        <v>0.002094901296996277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002851142062207174</v>
+        <v>0.002533430144187954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001689703012126564</v>
+        <v>0.0007605361881235728</v>
       </c>
       <c r="C9" t="n">
-        <v>6.911048232076023e-05</v>
+        <v>0.0003515157833615979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000159716921677</v>
+        <v>0.0001586662888723556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001745465337362218</v>
+        <v>0.0002422717675500199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000156979265031576</v>
+        <v>0.0001389131182619741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001137716364658501</v>
+        <v>0.0001262440519153087</v>
       </c>
     </row>
     <row r="12">
@@ -978,23 +978,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.326747457610633e-05</v>
+        <v>-3.278145879592742e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>2.006292499524311e-05</v>
+        <v>1.900417533974675e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.577838176700542e-05</v>
+        <v>-3.01914365440803e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001013176901143116</v>
+        <v>0.0002112516241377694</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2544412158678523</v>
+        <v>0.2410738078826685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02209109773034156</v>
+        <v>0.01755133385613129</v>
       </c>
     </row>
     <row r="3">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.215054008590169</v>
+        <v>0.2052560003376303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01477129068164966</v>
+        <v>0.008194564043892254</v>
       </c>
     </row>
     <row r="4">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1481441848843759</v>
+        <v>0.1509390313056927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007406345181852452</v>
+        <v>0.008756212106847641</v>
       </c>
     </row>
     <row r="5">
@@ -1079,36 +1079,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1093781429181077</v>
+        <v>0.1041190232301736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004346172743704631</v>
+        <v>0.006216975814214613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07624111417355546</v>
+        <v>0.07693810925914302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006194772215428191</v>
+        <v>0.006784548265437595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06984670713107292</v>
+        <v>0.07246561724074545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002691576048377172</v>
+        <v>0.006633538515486404</v>
       </c>
     </row>
     <row r="8">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05922474414531076</v>
+        <v>0.05499933368664441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001634209194267076</v>
+        <v>0.002901216236908075</v>
       </c>
     </row>
     <row r="9">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05485595435793152</v>
+        <v>0.05450781196591312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005225019627532724</v>
+        <v>0.002812923718736178</v>
       </c>
     </row>
     <row r="10">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0233631794766951</v>
+        <v>0.02133588475792547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002113330075918199</v>
+        <v>0.003678779772660148</v>
       </c>
     </row>
     <row r="11">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01668197759432109</v>
+        <v>0.01428767695311734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002133848006519901</v>
+        <v>0.002407977310256975</v>
       </c>
     </row>
     <row r="12">
@@ -1228,66 +1228,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1908457843386265</v>
+        <v>0.240732368016577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01158245733470568</v>
+        <v>0.00683401623075772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1562745636085344</v>
+        <v>0.1469085724931526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008670625720982443</v>
+        <v>0.01133422485565297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1258715693698084</v>
+        <v>0.1422901329423606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01020878768122255</v>
+        <v>0.01149817686059097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0961452920807695</v>
+        <v>0.0617718072708688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008950723080791659</v>
+        <v>0.003426705198460741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08744546627857767</v>
+        <v>0.05046079998758426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008624275813867951</v>
+        <v>0.004718921187210325</v>
       </c>
     </row>
     <row r="7">
@@ -1297,62 +1297,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06710761323596337</v>
+        <v>0.04998350048851367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004308104723592271</v>
+        <v>0.004873710401731181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05160695314529453</v>
+        <v>0.02956184922884493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003221866586226664</v>
+        <v>0.0008617917847122792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04505428630189361</v>
+        <v>0.01972892222374028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002780824735135864</v>
+        <v>0.0007790720354174824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02903353352612119</v>
+        <v>0.01408218538272783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002485549750847</v>
+        <v>0.002202091860293112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01509426309538899</v>
+        <v>0.004646087942949628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001611171214077067</v>
+        <v>0.0006508661033091587</v>
       </c>
     </row>
     <row r="12">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001477471837221644</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003314808843313063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004088846339070029</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001587743952802304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3842202723993018</v>
+        <v>0.3811320032319484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02919266364627715</v>
+        <v>0.02772187377690594</v>
       </c>
     </row>
     <row r="3">
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1951033426697097</v>
+        <v>0.1957861675804413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01023462800324552</v>
+        <v>0.01406774691567479</v>
       </c>
     </row>
     <row r="4">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01411749152912884</v>
+        <v>0.01602017959260513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004339117523122863</v>
+        <v>0.003204422069846154</v>
       </c>
     </row>
     <row r="5">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007708259451191047</v>
+        <v>0.007959715108046916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001709855215395546</v>
+        <v>0.002342211689326895</v>
       </c>
     </row>
     <row r="6">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001280448448160731</v>
+        <v>0.002074219891896378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001579082060940209</v>
+        <v>0.002593592262292061</v>
       </c>
     </row>
     <row r="7">
@@ -1489,42 +1489,42 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004469322107193419</v>
+        <v>0.001110278570601819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000172079009588658</v>
+        <v>0.0006694076218034357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0004695826442947748</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0004762930094217267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8.030502286795471e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0001587650564854852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1537,7 +1537,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1550,27 +1550,27 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.7309612282721e-05</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001542005704703203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002107217819268925</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000435100853255671</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1752629121777541</v>
+        <v>0.2885392866199687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01248840100305757</v>
+        <v>0.02033895097302082</v>
       </c>
     </row>
     <row r="3">
@@ -1629,49 +1629,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1603776539788752</v>
+        <v>0.1523988191807493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02448548172859672</v>
+        <v>0.01584795505781492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08883481539146851</v>
+        <v>0.1294759137981256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01296880781402912</v>
+        <v>0.01281683973840419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0505901784050156</v>
+        <v>0.09833445452544735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005844044040288709</v>
+        <v>0.00471298024943523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04909988898919045</v>
+        <v>0.0901719274596019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007615005488712878</v>
+        <v>0.01103116635840264</v>
       </c>
     </row>
     <row r="7">
@@ -1681,49 +1681,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03535615771576439</v>
+        <v>0.04932913051496677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003012088513186999</v>
+        <v>0.007616184412303354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0285622387962609</v>
+        <v>0.04750284537735903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004594957035448165</v>
+        <v>0.00691859362990326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01721559800141872</v>
+        <v>0.02562462825177398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006599354780118909</v>
+        <v>0.002679849143984415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009177724584746704</v>
+        <v>0.02134218540663479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003971507118223794</v>
+        <v>0.007465069869288948</v>
       </c>
     </row>
     <row r="11">
@@ -1733,23 +1733,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006771149238747642</v>
+        <v>0.01934519058531674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002302898999211094</v>
+        <v>0.004168685757412725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006446837857466803</v>
+        <v>0.01828186535584275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001484926343214043</v>
+        <v>0.003205565511334839</v>
       </c>
     </row>
     <row r="13">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003425176003374464</v>
+        <v>0.01759370248768126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002761077484091348</v>
+        <v>0.00272049740097147</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1826,10 @@
         <v>2.656634632774538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.539899092146841</v>
+        <v>1.455595236668979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.23084053297896473, 5.89719823752459]</t>
+          <t>[-0.199430230261693, 5.452372911963735]</t>
         </is>
       </c>
     </row>
@@ -1852,10 +1852,10 @@
         <v>-0.007304736864045405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3953378078242328</v>
+        <v>0.3926369955929508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.976</v>
+        <v>0.974</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.7913561515306549, 0.7926462998368247]</t>
+          <t>[-0.681679329904638, 0.7721712692204237]</t>
         </is>
       </c>
     </row>
@@ -1878,10 +1878,10 @@
         <v>0.226705731640346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.581447111162109</v>
+        <v>0.5793813481848359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.8264419496465467, 1.3270143976969369]</t>
+          <t>[-0.7631101597541943, 1.438915831126272]</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>-0.5283428645945856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6044814512653451</v>
+        <v>0.6064517120618778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.6308072139424492, 0.7718469560740033]</t>
+          <t>[-1.6264941160967337, 0.7352361446272159]</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>-0.1424874637821497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4092922669775269</v>
+        <v>0.4355546945871956</v>
       </c>
       <c r="D6" t="n">
         <v>0.756</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.9832270971731996, 0.6292393745894617]</t>
+          <t>[-0.9810828248802455, 0.6821768672829837]</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>-0.1189624414578215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.435135009719471</v>
+        <v>0.4223837460811472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.804</v>
+        <v>0.78</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.9420904095016003, 0.6990096249435298]</t>
+          <t>[-1.0031459581191955, 0.7389180152176076]</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         <v>0.6828301089395005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5590356865875107</v>
+        <v>0.5487535343937239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.004833988307725365, 1.8967190701671552]</t>
+          <t>[-0.021122083906343285, 1.8755864434595013]</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2138,10 @@
         <v>-0.008891045867793001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2226734198923408</v>
+        <v>0.245717974156389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.978</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.44917072284458104, 0.4520706192976046]</t>
+          <t>[-0.46431995341473087, 0.5195422333410642]</t>
         </is>
       </c>
     </row>
@@ -2164,10 +2164,10 @@
         <v>0.845588617962582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7808935583800216</v>
+        <v>0.7782429807629498</v>
       </c>
       <c r="D15" t="n">
-        <v>0.422</v>
+        <v>0.122</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 2.4176533489197687]</t>
+          <t>[0.0, 2.456014095972388]</t>
         </is>
       </c>
     </row>
@@ -2190,10 +2190,10 @@
         <v>0.2789076254158366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201683158726266</v>
+        <v>0.2067335156555224</v>
       </c>
       <c r="D16" t="n">
-        <v>0.102</v>
+        <v>0.116</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.6968116638543624]</t>
+          <t>[0.0, 0.7509792959180834]</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2216,10 @@
         <v>0.445237698024121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4322489203900294</v>
+        <v>0.4293066409146676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.164</v>
+        <v>0.168</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.3749637570050317]</t>
+          <t>[0.0, 1.388117336669949]</t>
         </is>
       </c>
     </row>
@@ -2372,19 +2372,19 @@
         <v>3.421256075787255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.927527560143264</v>
+        <v>0.9689505998392166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.6020524701603458, 5.200887639610478]</t>
+          <t>[1.4690393234548262, 5.185438893226975]</t>
         </is>
       </c>
     </row>
@@ -2398,10 +2398,10 @@
         <v>-1.772784455500506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6280887596498368</v>
+        <v>0.6450415331538306</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-2.953602594022514, -0.5157712093030736]</t>
+          <t>[-3.07865328940173, -0.5399567982487865]</t>
         </is>
       </c>
     </row>
@@ -2424,19 +2424,19 @@
         <v>-3.295331709883806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.310404001107684</v>
+        <v>1.374140858864118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-6.160425533219842, -1.0151641590737772]</t>
+          <t>[-6.009103213451703, -0.8445128586856452]</t>
         </is>
       </c>
     </row>
@@ -2580,10 +2580,10 @@
         <v>0.5403382810598699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6379917821364091</v>
+        <v>0.6186782490849386</v>
       </c>
       <c r="D31" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.6659276603818717, 1.8507958182681048]</t>
+          <t>[-0.6270681347854741, 1.8272168399928812]</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>-1.800793048713077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7477802800153098</v>
+        <v>0.7361756558617677</v>
       </c>
       <c r="D32" t="n">
         <v>0.016</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-3.218687417595212, -0.4516090239246607]</t>
+          <t>[-3.2408221949674556, -0.32277791198289507]</t>
         </is>
       </c>
     </row>
@@ -2632,10 +2632,10 @@
         <v>0.0893640055978627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9399968411226762</v>
+        <v>0.9918550880882745</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.5979641336714057, 1.9815850153626209]</t>
+          <t>[-1.9725035333181409, 2.0003357678741707]</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>-3.414820926958793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9491162248106269</v>
+        <v>0.9824095043503983</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-5.400194142723629, -1.8019867856559886]</t>
+          <t>[-5.151450548032971, -1.461366415005796]</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>-6.584941914784161</v>
       </c>
       <c r="C39" t="n">
-        <v>1.078200840778043</v>
+        <v>1.095256413843462</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.731129442232977, -4.600700268976286]</t>
+          <t>[-8.75965876510919, -4.5123121200894865]</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
         <v>4.765031170484354</v>
       </c>
       <c r="C40" t="n">
-        <v>1.076391806302965</v>
+        <v>1.092379372872252</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.628626127289645, 6.835857509622288]</t>
+          <t>[2.585372896981598, 6.7932040538757335]</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>-7.252521818378498</v>
       </c>
       <c r="C41" t="n">
-        <v>1.224962540143893</v>
+        <v>1.23055473646548</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-9.652873286601618, -4.884408268606027]</t>
+          <t>[-9.465783401806954, -4.7967642079307415]</t>
         </is>
       </c>
     </row>
@@ -2866,10 +2866,10 @@
         <v>1.798474207776606</v>
       </c>
       <c r="C42" t="n">
-        <v>1.159354431077974</v>
+        <v>1.135368582039137</v>
       </c>
       <c r="D42" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.44641751821693376, 4.085731816969404]</t>
+          <t>[-0.42442147448051926, 3.957118818544034]</t>
         </is>
       </c>
     </row>
@@ -3152,10 +3152,10 @@
         <v>0.013866367414485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03058864160506765</v>
+        <v>0.03070200613679778</v>
       </c>
       <c r="D53" t="n">
-        <v>0.636</v>
+        <v>0.662</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.04842655261498183, 0.06952043309467243]</t>
+          <t>[-0.04351715740820102, 0.07334206983285776]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_feature_info.xlsx
+++ b/examples/housing_feature_info.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.11230214940447</v>
+        <v>59.89792589101857</v>
       </c>
       <c r="C2" t="n">
-        <v>2.023830093218155</v>
+        <v>1.933266517170869</v>
       </c>
     </row>
     <row r="3">
@@ -477,36 +477,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.62908299426952</v>
+        <v>58.87455855938045</v>
       </c>
       <c r="C3" t="n">
-        <v>3.484742273479073</v>
+        <v>3.241717883657071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.625860612349316</v>
+        <v>5.689010814538933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1323113317666835</v>
+        <v>0.1299167409433352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.562324301548513</v>
+        <v>5.524536982400386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1765932006141095</v>
+        <v>0.3095112142415331</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2714995781667396</v>
+        <v>0.264901300268312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01097599678383404</v>
+        <v>0.02109898677178725</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2090480457446216</v>
+        <v>0.2378709974591244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017948612716455</v>
+        <v>0.01468567819830684</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1002821692305014</v>
+        <v>0.08780945728338459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007132008740139337</v>
+        <v>0.01492859145385913</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08484670272807282</v>
+        <v>0.08114534220962247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01108882607693371</v>
+        <v>0.005247563379569726</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06945476524410424</v>
+        <v>0.06333450558616598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009635308527958132</v>
+        <v>0.005477219412596769</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04541824708067328</v>
+        <v>0.04096825907613786</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00524368230861565</v>
+        <v>0.01018237284392119</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01723218723807216</v>
+        <v>0.01534679382579796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002912182144935726</v>
+        <v>0.004251604845505738</v>
       </c>
     </row>
     <row r="13">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01241416474062849</v>
+        <v>0.01277047810519931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004053570497048657</v>
+        <v>0.001637783548996897</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3074638404729932</v>
+        <v>0.3489875777733805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04568239076896046</v>
+        <v>0.0273805519999469</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.278035724070591</v>
+        <v>0.2751151947609521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01237345072741385</v>
+        <v>0.03366298881016243</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04690288689935771</v>
+        <v>0.04148313393797298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007987353253409397</v>
+        <v>0.006049514408983672</v>
       </c>
     </row>
     <row r="5">
@@ -695,36 +695,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04084130645696837</v>
+        <v>0.03855652703106698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004521833674533571</v>
+        <v>0.008480822862556381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03548662638473805</v>
+        <v>0.03803924255273479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004370268328339089</v>
+        <v>0.008151674562122369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03227018598915008</v>
+        <v>0.03207948776181561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002991292794571719</v>
+        <v>0.006082345269723843</v>
       </c>
     </row>
     <row r="8">
@@ -734,49 +734,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03116355231841044</v>
+        <v>0.02880723535934855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01364947295773823</v>
+        <v>0.003535631596988512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0198328493990868</v>
+        <v>0.01563345553682098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006559945245655129</v>
+        <v>0.009723888732390358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01964062670594389</v>
+        <v>0.01529144954307702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003693792966497226</v>
+        <v>0.003673702612262241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01501497451577833</v>
+        <v>0.01503057970873043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005039341875625523</v>
+        <v>0.002770348884272369</v>
       </c>
     </row>
     <row r="12">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001535531358393638</v>
+        <v>-0.00437286103456116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003782897833157563</v>
+        <v>5.803872117743449e-05</v>
       </c>
     </row>
     <row r="13">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001756797640159835</v>
+        <v>-0.004432314337293653</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001411751153414187</v>
+        <v>0.0005766439044829861</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1338127658705275</v>
+        <v>0.1467444360614514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01188053774375829</v>
+        <v>0.02383348301447462</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09894827523586422</v>
+        <v>0.09495251079706395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00330449220922369</v>
+        <v>0.005793671040336281</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0928393590627415</v>
+        <v>0.09157348675561514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006503847954282768</v>
+        <v>0.006435219710388507</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07725063088309991</v>
+        <v>0.08210616683035336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007717423728784238</v>
+        <v>0.006367921980501567</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01521766614580558</v>
+        <v>0.01630452867123473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003481684274535578</v>
+        <v>0.001760418792487117</v>
       </c>
     </row>
     <row r="7">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01109220626301224</v>
+        <v>0.008337193255008568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001925774921896383</v>
+        <v>0.001501604335471789</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002094901296996277</v>
+        <v>0.00132450366751955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002533430144187954</v>
+        <v>0.001988180788039199</v>
       </c>
     </row>
     <row r="9">
@@ -939,23 +939,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007605361881235728</v>
+        <v>0.0004376749441712624</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003515157833615979</v>
+        <v>0.0003858237232350346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001586662888723556</v>
+        <v>0.0001184984290008684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002422717675500199</v>
+        <v>6.39867549915848e-05</v>
       </c>
     </row>
     <row r="11">
@@ -965,36 +965,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001389131182619741</v>
+        <v>5.569982631183912e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001262440519153087</v>
+        <v>8.189583892619369e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.278145879592742e-06</v>
+        <v>-2.505112779660479e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>1.900417533974675e-05</v>
+        <v>0.0002145045692764406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.01914365440803e-05</v>
+        <v>-2.881671232448646e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002112516241377694</v>
+        <v>6.698624088899136e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2410738078826685</v>
+        <v>0.3854999525065056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01755133385613129</v>
+        <v>0.01509456587213012</v>
       </c>
     </row>
     <row r="3">
@@ -1053,88 +1053,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2052560003376303</v>
+        <v>0.2493550174649541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008194564043892254</v>
+        <v>0.01794604756927552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1509390313056927</v>
+        <v>0.1710581464360975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008756212106847641</v>
+        <v>0.008300948693777723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1041190232301736</v>
+        <v>0.1465149610292397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006216975814214613</v>
+        <v>0.008761990914955806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07693810925914302</v>
+        <v>0.09166040324568814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006784548265437595</v>
+        <v>0.006359839144483546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07246561724074545</v>
+        <v>0.09009137405446024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006633538515486404</v>
+        <v>0.002817261167717706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05499933368664441</v>
+        <v>0.0871203376855874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002901216236908075</v>
+        <v>0.006170698297128371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05450781196591312</v>
+        <v>0.05691777693513291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002812923718736178</v>
+        <v>0.003352501288113183</v>
       </c>
     </row>
     <row r="10">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02133588475792547</v>
+        <v>0.04029553371178061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003678779772660148</v>
+        <v>0.001797064837603218</v>
       </c>
     </row>
     <row r="11">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01428767695311734</v>
+        <v>0.03469354592693865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002407977310256975</v>
+        <v>0.003733506283407443</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.003057395602995094</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0002611239022836554</v>
       </c>
     </row>
     <row r="13">
@@ -1232,75 +1232,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.240732368016577</v>
+        <v>0.3343150054572273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00683401623075772</v>
+        <v>0.03192109123784496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1469085724931526</v>
+        <v>0.2520883710485102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01133422485565297</v>
+        <v>0.01014919747378181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1422901329423606</v>
+        <v>0.1421413317286163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01149817686059097</v>
+        <v>0.009788741627040137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0617718072708688</v>
+        <v>0.1227083773586984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003426705198460741</v>
+        <v>0.00813267818530691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05046079998758426</v>
+        <v>0.06741328551442083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004718921187210325</v>
+        <v>0.004499225571304086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04998350048851367</v>
+        <v>0.05974455510399976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004873710401731181</v>
+        <v>0.004860994593401677</v>
       </c>
     </row>
     <row r="8">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02956184922884493</v>
+        <v>0.05508724051520779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008617917847122792</v>
+        <v>0.004103220980346614</v>
       </c>
     </row>
     <row r="9">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01972892222374028</v>
+        <v>0.05455394230060506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007790720354174824</v>
+        <v>0.002219688412241122</v>
       </c>
     </row>
     <row r="10">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01408218538272783</v>
+        <v>0.02906114929965948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002202091860293112</v>
+        <v>0.00250760336067648</v>
       </c>
     </row>
     <row r="11">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004646087942949628</v>
+        <v>0.01231105274703998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006508661033091587</v>
+        <v>0.001941406454403828</v>
       </c>
     </row>
     <row r="12">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0002903998013186193</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3811320032319484</v>
+        <v>0.3802902816558748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02772187377690594</v>
+        <v>0.02434325972803733</v>
       </c>
     </row>
     <row r="3">
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1957861675804413</v>
+        <v>0.204348237092741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01406774691567479</v>
+        <v>0.01241416406527477</v>
       </c>
     </row>
     <row r="4">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01602017959260513</v>
+        <v>0.01704404840214508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003204422069846154</v>
+        <v>0.00390199578050288</v>
       </c>
     </row>
     <row r="5">
@@ -1463,85 +1463,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007959715108046916</v>
+        <v>0.01024828674709233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002342211689326895</v>
+        <v>0.003630376552657545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002074219891896378</v>
+        <v>0.002479652660011955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002593592262292061</v>
+        <v>0.0006696411177796967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001110278570601819</v>
+        <v>0.002314570075961186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006694076218034357</v>
+        <v>0.001759234442271001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004695826442947748</v>
+        <v>0.001562622391964097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004762930094217267</v>
+        <v>0.001092951572701514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.030502286795471e-05</v>
+        <v>0.001315632364802899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001587650564854852</v>
+        <v>0.001084571148415639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.000282030944923628</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0002251815582364784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1550,11 +1550,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1616,36 +1616,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2885392866199687</v>
+        <v>0.320545462890611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02033895097302082</v>
+        <v>0.01998463094177444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1523988191807493</v>
+        <v>0.1292587336497426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01584795505781492</v>
+        <v>0.0148193407535366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1294759137981256</v>
+        <v>0.1238197133867495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01281683973840419</v>
+        <v>0.01532793379158456</v>
       </c>
     </row>
     <row r="5">
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09833445452544735</v>
+        <v>0.1052983005282189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00471298024943523</v>
+        <v>0.01022981280854196</v>
       </c>
     </row>
     <row r="6">
@@ -1668,36 +1668,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0901719274596019</v>
+        <v>0.08133366221492686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01103116635840264</v>
+        <v>0.009259952625222959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04932913051496677</v>
+        <v>0.05272110216979507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007616184412303354</v>
+        <v>0.003249865593226039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04750284537735903</v>
+        <v>0.04233107409449357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00691859362990326</v>
+        <v>0.003176170679977027</v>
       </c>
     </row>
     <row r="9">
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02562462825177398</v>
+        <v>0.02240637201779814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002679849143984415</v>
+        <v>0.001205534250116036</v>
       </c>
     </row>
     <row r="10">
@@ -1720,49 +1720,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02134218540663479</v>
+        <v>0.01662003712390001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007465069869288948</v>
+        <v>0.003759235653130411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01934519058531674</v>
+        <v>0.01639173461794598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004168685757412725</v>
+        <v>0.001010838787396068</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01828186535584275</v>
+        <v>0.01435012510172489</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003205565511334839</v>
+        <v>0.004977611023014587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01759370248768126</v>
+        <v>0.01370641240969808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00272049740097147</v>
+        <v>0.003636818120395156</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1826,10 @@
         <v>2.656634632774538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.455595236668979</v>
+        <v>1.491152700505435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.199430230261693, 5.452372911963735]</t>
+          <t>[-0.1637477889437528, 5.629374071901362]</t>
         </is>
       </c>
     </row>
@@ -1852,10 +1852,10 @@
         <v>-0.007304736864045405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3926369955929508</v>
+        <v>0.3947063677751114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.974</v>
+        <v>0.982</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.681679329904638, 0.7721712692204237]</t>
+          <t>[-0.7000709873993523, 0.8146311509800079]</t>
         </is>
       </c>
     </row>
@@ -1878,10 +1878,10 @@
         <v>0.226705731640346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5793813481848359</v>
+        <v>0.5769496171660691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.7631101597541943, 1.438915831126272]</t>
+          <t>[-0.747627497442177, 1.4484200962557385]</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>-0.5283428645945856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6064517120618778</v>
+        <v>0.5657832261785722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372</v>
+        <v>0.342</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.6264941160967337, 0.7352361446272159]</t>
+          <t>[-1.6042248379200574, 0.6030072370815781]</t>
         </is>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>-0.1424874637821497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4355546945871956</v>
+        <v>0.4383283267816634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.9810828248802455, 0.6821768672829837]</t>
+          <t>[-0.9778449014302781, 0.7530745050251878]</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>-0.1189624414578215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4223837460811472</v>
+        <v>0.4413512703245122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78</v>
+        <v>0.792</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1.0031459581191955, 0.7389180152176076]</t>
+          <t>[-0.8935393086793516, 0.8051676677336965]</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         <v>0.6828301089395005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5487535343937239</v>
+        <v>0.565287902826492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128</v>
+        <v>0.194</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.021122083906343285, 1.8755864434595013]</t>
+          <t>[-0.025176281434430507, 1.8819469289855948]</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2138,10 @@
         <v>-0.008891045867793001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245717974156389</v>
+        <v>0.2312523444987329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.46431995341473087, 0.5195422333410642]</t>
+          <t>[-0.4326543773486117, 0.5200876154136646]</t>
         </is>
       </c>
     </row>
@@ -2164,10 +2164,10 @@
         <v>0.845588617962582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7782429807629498</v>
+        <v>0.8041680509683051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.122</v>
+        <v>0.17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 2.456014095972388]</t>
+          <t>[0.0, 2.5580707869860517]</t>
         </is>
       </c>
     </row>
@@ -2190,19 +2190,19 @@
         <v>0.2789076254158366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2067335156555224</v>
+        <v>0.199524407619928</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116</v>
+        <v>0.092</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.7509792959180834]</t>
+          <t>[0.0, 0.7596445929120104]</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2216,10 @@
         <v>0.445237698024121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4293066409146676</v>
+        <v>0.4072726242917815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168</v>
+        <v>0.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.388117336669949]</t>
+          <t>[0.0, 1.3213101934432954]</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
         <v>3.421256075787255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9689505998392166</v>
+        <v>0.9803623973939092</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.4690393234548262, 5.185438893226975]</t>
+          <t>[1.595494056522102, 5.293089397155834]</t>
         </is>
       </c>
     </row>
@@ -2398,19 +2398,19 @@
         <v>-1.772784455500506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6450415331538306</v>
+        <v>0.6829006077054673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-3.07865328940173, -0.5399567982487865]</t>
+          <t>[-3.298338740695498, -0.5735524210411398]</t>
         </is>
       </c>
     </row>
@@ -2424,19 +2424,19 @@
         <v>-3.295331709883806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.374140858864118</v>
+        <v>1.330385069212295</v>
       </c>
       <c r="D25" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-6.009103213451703, -0.8445128586856452]</t>
+          <t>[-6.026749895862283, -0.7848723205781849]</t>
         </is>
       </c>
     </row>
@@ -2580,10 +2580,10 @@
         <v>0.5403382810598699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6186782490849386</v>
+        <v>0.5865767907386538</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386</v>
+        <v>0.354</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.6270681347854741, 1.8272168399928812]</t>
+          <t>[-0.637992481206745, 1.767101660721299]</t>
         </is>
       </c>
     </row>
@@ -2606,10 +2606,10 @@
         <v>-1.800793048713077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7361756558617677</v>
+        <v>0.7352968463569987</v>
       </c>
       <c r="D32" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-3.2408221949674556, -0.32277791198289507]</t>
+          <t>[-3.263059088999573, -0.31773025696190654]</t>
         </is>
       </c>
     </row>
@@ -2632,10 +2632,10 @@
         <v>0.0893640055978627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9918550880882745</v>
+        <v>0.9496968921487807</v>
       </c>
       <c r="D33" t="n">
-        <v>0.916</v>
+        <v>0.918</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.9725035333181409, 2.0003357678741707]</t>
+          <t>[-1.8208811425264164, 1.808491897331787]</t>
         </is>
       </c>
     </row>
@@ -2762,19 +2762,19 @@
         <v>-3.414820926958793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9824095043503983</v>
+        <v>0.9779075107846887</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-5.151450548032971, -1.461366415005796]</t>
+          <t>[-5.359192732153764, -1.511330400738025]</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>-6.584941914784161</v>
       </c>
       <c r="C39" t="n">
-        <v>1.095256413843462</v>
+        <v>1.053518002619174</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.75965876510919, -4.5123121200894865]</t>
+          <t>[-8.522317801208306, -4.421581270956343]</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
         <v>4.765031170484354</v>
       </c>
       <c r="C40" t="n">
-        <v>1.092379372872252</v>
+        <v>1.037331956094857</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.585372896981598, 6.7932040538757335]</t>
+          <t>[2.747569947906102, 6.807314158079455]</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>-7.252521818378498</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23055473646548</v>
+        <v>1.172069438088803</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-9.465783401806954, -4.7967642079307415]</t>
+          <t>[-9.681832123252061, -5.135783330319876]</t>
         </is>
       </c>
     </row>
@@ -2866,19 +2866,19 @@
         <v>1.798474207776606</v>
       </c>
       <c r="C42" t="n">
-        <v>1.135368582039137</v>
+        <v>1.089981925750715</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122</v>
+        <v>0.094</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.42442147448051926, 3.957118818544034]</t>
+          <t>[-0.3071886918705994, 3.855201510635128]</t>
         </is>
       </c>
     </row>
@@ -3152,10 +3152,10 @@
         <v>0.013866367414485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03070200613679778</v>
+        <v>0.03099643322114837</v>
       </c>
       <c r="D53" t="n">
-        <v>0.662</v>
+        <v>0.66</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.04351715740820102, 0.07334206983285776]</t>
+          <t>[-0.04736274772277804, 0.07473366983101701]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_feature_info.xlsx
+++ b/examples/housing_feature_info.xlsx
@@ -460,53 +460,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.89792589101857</v>
+        <v>61.52130556358154</v>
       </c>
       <c r="C2" t="n">
-        <v>1.933266517170869</v>
+        <v>0.308684382798779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.87455855938045</v>
+        <v>60.21760875016115</v>
       </c>
       <c r="C3" t="n">
-        <v>3.241717883657071</v>
+        <v>1.894065410465327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.689010814538933</v>
+        <v>5.530113732224889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1299167409433352</v>
+        <v>0.2127585938058097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.524536982400386</v>
+        <v>5.322667297859812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3095112142415331</v>
+        <v>0.1756123394050349</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.264901300268312</v>
+        <v>0.2680615797924282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02109898677178725</v>
+        <v>0.01251175373581411</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2378709974591244</v>
+        <v>0.2326013178662026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01468567819830684</v>
+        <v>0.01817431252408643</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08780945728338459</v>
+        <v>0.09511292117864625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01492859145385913</v>
+        <v>0.01379796583691449</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08114534220962247</v>
+        <v>0.07984357894829172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005247563379569726</v>
+        <v>0.01081162258773868</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06333450558616598</v>
+        <v>0.07263524821723193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005477219412596769</v>
+        <v>0.01038181845176189</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04096825907613786</v>
+        <v>0.04221538570294283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01018237284392119</v>
+        <v>0.006044704780625964</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01534679382579796</v>
+        <v>0.01368554653298029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004251604845505738</v>
+        <v>0.004683766047780528</v>
       </c>
     </row>
     <row r="13">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01277047810519931</v>
+        <v>0.01204726288110087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001637783548996897</v>
+        <v>0.001586299655050524</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3489875777733805</v>
+        <v>0.3504588869480959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0273805519999469</v>
+        <v>0.03370117793097477</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2751151947609521</v>
+        <v>0.2595051997050722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03366298881016243</v>
+        <v>0.005727330935639664</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04148313393797298</v>
+        <v>0.04133346764841186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006049514408983672</v>
+        <v>0.003725811998926421</v>
       </c>
     </row>
     <row r="5">
@@ -695,36 +695,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03855652703106698</v>
+        <v>0.03691813147347267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008480822862556381</v>
+        <v>0.009507514825783003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03803924255273479</v>
+        <v>0.0347894833133674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008151674562122369</v>
+        <v>0.0032987937547909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03207948776181561</v>
+        <v>0.02845383876280037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006082345269723843</v>
+        <v>0.008114092651737716</v>
       </c>
     </row>
     <row r="8">
@@ -734,49 +734,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02880723535934855</v>
+        <v>0.02377497625074587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003535631596988512</v>
+        <v>0.006009407024282329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01563345553682098</v>
+        <v>0.01939322337383862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009723888732390358</v>
+        <v>0.002564064088214509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01529144954307702</v>
+        <v>0.01385849839456883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003673702612262241</v>
+        <v>0.005214859275265122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01503057970873043</v>
+        <v>0.01148802456148545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002770348884272369</v>
+        <v>0.004020928616107812</v>
       </c>
     </row>
     <row r="12">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00437286103456116</v>
+        <v>-0.004198594519386778</v>
       </c>
       <c r="C12" t="n">
-        <v>5.803872117743449e-05</v>
+        <v>0.000723613462561806</v>
       </c>
     </row>
     <row r="13">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004432314337293653</v>
+        <v>-0.004373097249352087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005766439044829861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -848,36 +848,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1467444360614514</v>
+        <v>0.1289263778329896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02383348301447462</v>
+        <v>0.01147248355354166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09495251079706395</v>
+        <v>0.08952090728735029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005793671040336281</v>
+        <v>0.01058251688597697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09157348675561514</v>
+        <v>0.08949604139355687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006435219710388507</v>
+        <v>0.006124898502325823</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08210616683035336</v>
+        <v>0.075561734773632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006367921980501567</v>
+        <v>0.002474511313286203</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01630452867123473</v>
+        <v>0.01262754237802151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001760418792487117</v>
+        <v>0.001861267108831502</v>
       </c>
     </row>
     <row r="7">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008337193255008568</v>
+        <v>0.008872578092468308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001501604335471789</v>
+        <v>0.002106388928335695</v>
       </c>
     </row>
     <row r="8">
@@ -926,75 +926,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00132450366751955</v>
+        <v>0.0006671755325070361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001988180788039199</v>
+        <v>0.001524620928276203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004376749441712624</v>
+        <v>0.0003940057861253621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003858237232350346</v>
+        <v>0.0005052884048464606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001184984290008684</v>
+        <v>0.0002145303823107403</v>
       </c>
       <c r="C10" t="n">
-        <v>6.39867549915848e-05</v>
+        <v>0.0001672714144397846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.569982631183912e-05</v>
+        <v>1.555455251927018e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>8.189583892619369e-05</v>
+        <v>0.0002211013798496375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.505112779660479e-06</v>
+        <v>-2.875003941626986e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002145045692764406</v>
+        <v>5.338489774432005e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.881671232448646e-05</v>
+        <v>-5.435402470279627e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>6.698624088899136e-05</v>
+        <v>0.0003316765409548778</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3854999525065056</v>
+        <v>0.3806225685333211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01509456587213012</v>
+        <v>0.02147385981783349</v>
       </c>
     </row>
     <row r="3">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2493550174649541</v>
+        <v>0.2670674294617567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01794604756927552</v>
+        <v>0.01071574002416404</v>
       </c>
     </row>
     <row r="4">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1710581464360975</v>
+        <v>0.179017801068208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008300948693777723</v>
+        <v>0.01370862289263664</v>
       </c>
     </row>
     <row r="5">
@@ -1079,36 +1079,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1465149610292397</v>
+        <v>0.1579946367455939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008761990914955806</v>
+        <v>0.008312760369945847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09166040324568814</v>
+        <v>0.09484565351563168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006359839144483546</v>
+        <v>0.002183435909480395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09009137405446024</v>
+        <v>0.0948348827247099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002817261167717706</v>
+        <v>0.002506599987823317</v>
       </c>
     </row>
     <row r="8">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0871203376855874</v>
+        <v>0.08497973930956884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006170698297128371</v>
+        <v>0.00416060197567683</v>
       </c>
     </row>
     <row r="9">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05691777693513291</v>
+        <v>0.05896695562737238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003352501288113183</v>
+        <v>0.002849964368899824</v>
       </c>
     </row>
     <row r="10">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04029553371178061</v>
+        <v>0.04111215347781468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001797064837603218</v>
+        <v>0.001891388460332216</v>
       </c>
     </row>
     <row r="11">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03469354592693865</v>
+        <v>0.03768025860539583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003733506283407443</v>
+        <v>0.002581151002043282</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003057395602995094</v>
+        <v>0.003328286551372894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002611239022836554</v>
+        <v>0.0002806579944719445</v>
       </c>
     </row>
     <row r="13">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3343150054572273</v>
+        <v>0.3765120007018792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03192109123784496</v>
+        <v>0.01792498387246104</v>
       </c>
     </row>
     <row r="3">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2520883710485102</v>
+        <v>0.2761164142695896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01014919747378181</v>
+        <v>0.00823904023039496</v>
       </c>
     </row>
     <row r="4">
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1421413317286163</v>
+        <v>0.1323271825325748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009788741627040137</v>
+        <v>0.01435876539114304</v>
       </c>
     </row>
     <row r="5">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1227083773586984</v>
+        <v>0.1258211700649241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00813267818530691</v>
+        <v>0.004754908333934997</v>
       </c>
     </row>
     <row r="6">
@@ -1284,49 +1284,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06741328551442083</v>
+        <v>0.06352928702593512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004499225571304086</v>
+        <v>0.002300160330046779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05974455510399976</v>
+        <v>0.05824235835723925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004860994593401677</v>
+        <v>0.003309084326210802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05508724051520779</v>
+        <v>0.05396865552055785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004103220980346614</v>
+        <v>0.002725971167746199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05455394230060506</v>
+        <v>0.05312052132746281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002219688412241122</v>
+        <v>0.002788286943631256</v>
       </c>
     </row>
     <row r="10">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02906114929965948</v>
+        <v>0.03070553322221665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00250760336067648</v>
+        <v>0.002571161518209288</v>
       </c>
     </row>
     <row r="11">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01231105274703998</v>
+        <v>0.01095476274750948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001941406454403828</v>
+        <v>0.0009542228189913202</v>
       </c>
     </row>
     <row r="12">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002903998013186193</v>
+        <v>0.0006621631586976485</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9.039698928364015e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3802902816558748</v>
+        <v>0.3431090015159261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02434325972803733</v>
+        <v>0.007642366608407933</v>
       </c>
     </row>
     <row r="3">
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.204348237092741</v>
+        <v>0.2003352114720817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01241416406527477</v>
+        <v>0.01157839804754537</v>
       </c>
     </row>
     <row r="4">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01704404840214508</v>
+        <v>0.01822085815189694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00390199578050288</v>
+        <v>0.005420995764811351</v>
       </c>
     </row>
     <row r="5">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01024828674709233</v>
+        <v>0.01466961739519559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003630376552657545</v>
+        <v>0.001997841552397236</v>
       </c>
     </row>
     <row r="6">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002479652660011955</v>
+        <v>0.002973012808812592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006696411177796967</v>
+        <v>0.0008516983331880359</v>
       </c>
     </row>
     <row r="7">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002314570075961186</v>
+        <v>0.001838836957453904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001759234442271001</v>
+        <v>0.001001495661780006</v>
       </c>
     </row>
     <row r="8">
@@ -1502,42 +1502,42 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001562622391964097</v>
+        <v>0.001032158407314809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001092951572701514</v>
+        <v>0.001113464674227153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001315632364802899</v>
+        <v>3.981512334192416e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001084571148415639</v>
+        <v>0.0002098395451743209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000282030944923628</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002251815582364784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1550,7 +1550,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1563,14 +1563,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-6.661565296446348e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.001202264836277076</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.320545462890611</v>
+        <v>0.3088568537363459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01998463094177444</v>
+        <v>0.01242077610344554</v>
       </c>
     </row>
     <row r="3">
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1292587336497426</v>
+        <v>0.1370591220156729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0148193407535366</v>
+        <v>0.01386408618858573</v>
       </c>
     </row>
     <row r="4">
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1238197133867495</v>
+        <v>0.1229972941256665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01532793379158456</v>
+        <v>0.005480530888796114</v>
       </c>
     </row>
     <row r="5">
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1052983005282189</v>
+        <v>0.1090860752695823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01022981280854196</v>
+        <v>0.01273558244668655</v>
       </c>
     </row>
     <row r="6">
@@ -1668,36 +1668,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08133366221492686</v>
+        <v>0.08666114953668555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009259952625222959</v>
+        <v>0.003653264911260937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05272110216979507</v>
+        <v>0.04897372994406515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003249865593226039</v>
+        <v>0.005645982242564426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04233107409449357</v>
+        <v>0.04823045397706691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003176170679977027</v>
+        <v>0.004567012811296953</v>
       </c>
     </row>
     <row r="9">
@@ -1707,36 +1707,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02240637201779814</v>
+        <v>0.02038974812607228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001205534250116036</v>
+        <v>0.003110189037854126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01662003712390001</v>
+        <v>0.01794597159002047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003759235653130411</v>
+        <v>0.001807465872067297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01639173461794598</v>
+        <v>0.01566273398155176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001010838787396068</v>
+        <v>0.003312724713534955</v>
       </c>
     </row>
     <row r="12">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01435012510172489</v>
+        <v>0.0153433869919472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004977611023014587</v>
+        <v>0.001456947323293138</v>
       </c>
     </row>
     <row r="13">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01370641240969808</v>
+        <v>0.01397090776348824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003636818120395156</v>
+        <v>0.004269491178043996</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1826,10 @@
         <v>2.656634632774538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.491152700505435</v>
+        <v>1.500276484622983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.1637477889437528, 5.629374071901362]</t>
+          <t>[-0.26679693722586373, 5.54794689042131]</t>
         </is>
       </c>
     </row>
@@ -1852,10 +1852,10 @@
         <v>-0.007304736864045405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3947063677751114</v>
+        <v>0.3847633101632117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.982</v>
+        <v>0.98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.7000709873993523, 0.8146311509800079]</t>
+          <t>[-0.7016056327030211, 0.7907494958890009]</t>
         </is>
       </c>
     </row>
@@ -1878,10 +1878,10 @@
         <v>0.226705731640346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5769496171660691</v>
+        <v>0.5454558697172734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.708</v>
+        <v>0.656</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.747627497442177, 1.4484200962557385]</t>
+          <t>[-0.735234942494739, 1.4449695875053479]</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>-0.5283428645945856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5657832261785722</v>
+        <v>0.5437278998393342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342</v>
+        <v>0.336</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.6042248379200574, 0.6030072370815781]</t>
+          <t>[-1.4695745142460015, 0.5494730444807092]</t>
         </is>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>-0.1424874637821497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4383283267816634</v>
+        <v>0.4082994541993975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>0.716</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.9778449014302781, 0.7530745050251878]</t>
+          <t>[-0.8898751560448618, 0.7310064802203091]</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>-0.1189624414578215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4413512703245122</v>
+        <v>0.4193065136976258</v>
       </c>
       <c r="D7" t="n">
-        <v>0.792</v>
+        <v>0.82</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.8935393086793516, 0.8051676677336965]</t>
+          <t>[-1.0272310570984122, 0.6735937996446175]</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         <v>0.6828301089395005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.565287902826492</v>
+        <v>0.5158621809732618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194</v>
+        <v>0.112</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.025176281434430507, 1.8819469289855948]</t>
+          <t>[-0.013490073174819796, 1.8097194805298038]</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2138,10 @@
         <v>-0.008891045867793001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2312523444987329</v>
+        <v>0.2322109592783164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.918</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.4326543773486117, 0.5200876154136646]</t>
+          <t>[-0.43283971669652654, 0.43983994015077105]</t>
         </is>
       </c>
     </row>
@@ -2164,10 +2164,10 @@
         <v>0.845588617962582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8041680509683051</v>
+        <v>0.7623094786164112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 2.5580707869860517]</t>
+          <t>[0.0, 2.414687157453295]</t>
         </is>
       </c>
     </row>
@@ -2190,19 +2190,19 @@
         <v>0.2789076254158366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.199524407619928</v>
+        <v>0.2168003555461077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.092</v>
+        <v>0.108</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.7596445929120104]</t>
+          <t>[0.0, 0.8310244775801718]</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2216,10 @@
         <v>0.445237698024121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4072726242917815</v>
+        <v>0.4112486984029627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.3213101934432954]</t>
+          <t>[0.0, 1.3480274653665385]</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
         <v>3.421256075787255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9803623973939092</v>
+        <v>0.9507462106304932</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.595494056522102, 5.293089397155834]</t>
+          <t>[1.523748137892576, 5.3661458063628675]</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>-1.772784455500506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6829006077054673</v>
+        <v>0.6745227187064743</v>
       </c>
       <c r="D24" t="n">
         <v>0.012</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-3.298338740695498, -0.5735524210411398]</t>
+          <t>[-3.1238416400535503, -0.5322569376372491]</t>
         </is>
       </c>
     </row>
@@ -2424,10 +2424,10 @@
         <v>-3.295331709883806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.330385069212295</v>
+        <v>1.345226727686688</v>
       </c>
       <c r="D25" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-6.026749895862283, -0.7848723205781849]</t>
+          <t>[-6.175390428974897, -0.74933186844423]</t>
         </is>
       </c>
     </row>
@@ -2580,10 +2580,10 @@
         <v>0.5403382810598699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5865767907386538</v>
+        <v>0.621223261812517</v>
       </c>
       <c r="D31" t="n">
-        <v>0.354</v>
+        <v>0.382</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.637992481206745, 1.767101660721299]</t>
+          <t>[-0.7427907541492708, 1.6804749524885731]</t>
         </is>
       </c>
     </row>
@@ -2606,10 +2606,10 @@
         <v>-1.800793048713077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7352968463569987</v>
+        <v>0.7727472834311792</v>
       </c>
       <c r="D32" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-3.263059088999573, -0.31773025696190654]</t>
+          <t>[-3.1760812919460015, -0.20237525078608665]</t>
         </is>
       </c>
     </row>
@@ -2632,10 +2632,10 @@
         <v>0.0893640055978627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9496968921487807</v>
+        <v>1.03852347049736</v>
       </c>
       <c r="D33" t="n">
-        <v>0.918</v>
+        <v>0.948</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.8208811425264164, 1.808491897331787]</t>
+          <t>[-1.9484307867478228, 2.0068068292892587]</t>
         </is>
       </c>
     </row>
@@ -2762,19 +2762,19 @@
         <v>-3.414820926958793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9779075107846887</v>
+        <v>0.9652836200943999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-5.359192732153764, -1.511330400738025]</t>
+          <t>[-5.442402420231143, -1.7140379965285144]</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>-6.584941914784161</v>
       </c>
       <c r="C39" t="n">
-        <v>1.053518002619174</v>
+        <v>1.067810084596999</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.522317801208306, -4.421581270956343]</t>
+          <t>[-8.70646331730063, -4.5949066211857605]</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
         <v>4.765031170484354</v>
       </c>
       <c r="C40" t="n">
-        <v>1.037331956094857</v>
+        <v>1.050458987270462</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.747569947906102, 6.807314158079455]</t>
+          <t>[2.6169028305713646, 6.897756963150574]</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>-7.252521818378498</v>
       </c>
       <c r="C41" t="n">
-        <v>1.172069438088803</v>
+        <v>1.217415163913797</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-9.681832123252061, -5.135783330319876]</t>
+          <t>[-9.71664028063411, -4.863006113808243]</t>
         </is>
       </c>
     </row>
@@ -2866,19 +2866,19 @@
         <v>1.798474207776606</v>
       </c>
       <c r="C42" t="n">
-        <v>1.089981925750715</v>
+        <v>1.097615023438547</v>
       </c>
       <c r="D42" t="n">
-        <v>0.094</v>
+        <v>0.102</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.3071886918705994, 3.855201510635128]</t>
+          <t>[-0.3353869422772535, 3.8405087278906853]</t>
         </is>
       </c>
     </row>
@@ -3152,10 +3152,10 @@
         <v>0.013866367414485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03099643322114837</v>
+        <v>0.03182149516201919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.04736274772277804, 0.07473366983101701]</t>
+          <t>[-0.047292261639565326, 0.07716250406975188]</t>
         </is>
       </c>
     </row>
